--- a/REGULAR/SP-VMO/DE OCAMPO, MA. ELENA DE GRANO.xlsx
+++ b/REGULAR/SP-VMO/DE OCAMPO, MA. ELENA DE GRANO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EF2AA8-6E14-4EFE-9AB1-B16E80B44038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
   <si>
     <t>PERIOD</t>
   </si>
@@ -380,12 +379,21 @@
   </si>
   <si>
     <t>7/27,28/2023</t>
+  </si>
+  <si>
+    <t>8/16,17/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>9/6,7/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1073,7 +1081,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1116,7 +1124,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1180,7 +1188,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,7 +1248,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1314,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1377,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1475,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1534,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1599,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1642,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1717,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +1903,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +1969,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2027,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2085,7 +2093,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +2149,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2224,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2267,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2325,7 +2333,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,7 +2389,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2468,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2477,25 +2485,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K153" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K153" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2802,7 +2810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2812,7 +2820,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2820,34 +2828,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A100" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A100" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
+      <selection pane="bottomLeft" activeCell="K114" sqref="K114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2868,7 +2876,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2888,7 +2896,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2910,7 +2918,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2918,7 +2926,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2931,7 +2939,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2948,7 +2956,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2983,7 +2991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2992,7 +3000,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>96.681000000000012</v>
+        <v>97.931000000000012</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3002,12 +3010,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>48.725000000000009</v>
+        <v>45.975000000000009</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3029,7 +3037,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3055,7 +3063,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3079,7 +3087,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>46</v>
@@ -3101,7 +3109,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -3125,7 +3133,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -3145,7 +3153,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43221</v>
       </c>
@@ -3165,7 +3173,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -3185,7 +3193,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -3209,7 +3217,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43313</v>
       </c>
@@ -3233,7 +3241,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -3253,7 +3261,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -3279,7 +3287,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>55</v>
@@ -3301,7 +3309,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43405</v>
       </c>
@@ -3327,7 +3335,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>58</v>
@@ -3349,7 +3357,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43435</v>
       </c>
@@ -3375,7 +3383,7 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>60</v>
@@ -3397,7 +3405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>46</v>
@@ -3419,7 +3427,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>63</v>
       </c>
@@ -3437,7 +3445,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43466</v>
       </c>
@@ -3461,7 +3469,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>54</v>
@@ -3483,7 +3491,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43497</v>
       </c>
@@ -3507,7 +3515,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>46</v>
@@ -3529,7 +3537,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43525</v>
       </c>
@@ -3549,7 +3557,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43556</v>
       </c>
@@ -3575,7 +3583,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>54</v>
@@ -3597,7 +3605,7 @@
         <v>43573</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>54</v>
@@ -3619,7 +3627,7 @@
         <v>43584</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43586</v>
       </c>
@@ -3643,7 +3651,7 @@
         <v>43588</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43617</v>
       </c>
@@ -3667,7 +3675,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43647</v>
       </c>
@@ -3687,7 +3695,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43678</v>
       </c>
@@ -3707,7 +3715,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43709</v>
       </c>
@@ -3727,7 +3735,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43739</v>
       </c>
@@ -3747,7 +3755,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43770</v>
       </c>
@@ -3771,7 +3779,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>54</v>
@@ -3793,7 +3801,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43800</v>
       </c>
@@ -3819,7 +3827,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>58</v>
@@ -3841,7 +3849,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>73</v>
       </c>
@@ -3859,7 +3867,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43831</v>
       </c>
@@ -3879,7 +3887,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43862</v>
       </c>
@@ -3903,7 +3911,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43891</v>
       </c>
@@ -3927,7 +3935,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43922</v>
       </c>
@@ -3947,7 +3955,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43952</v>
       </c>
@@ -3967,7 +3975,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43983</v>
       </c>
@@ -3987,7 +3995,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44013</v>
       </c>
@@ -4013,7 +4021,7 @@
         <v>44042</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44044</v>
       </c>
@@ -4039,7 +4047,7 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44075</v>
       </c>
@@ -4063,7 +4071,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44105</v>
       </c>
@@ -4083,7 +4091,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44136</v>
       </c>
@@ -4103,7 +4111,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44166</v>
       </c>
@@ -4127,7 +4135,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>77</v>
@@ -4149,7 +4157,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>79</v>
@@ -4169,7 +4177,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>80</v>
       </c>
@@ -4187,7 +4195,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44197</v>
       </c>
@@ -4213,7 +4221,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44228</v>
       </c>
@@ -4233,7 +4241,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44256</v>
       </c>
@@ -4253,7 +4261,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44287</v>
       </c>
@@ -4273,7 +4281,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44317</v>
       </c>
@@ -4293,7 +4301,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44348</v>
       </c>
@@ -4313,7 +4321,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44378</v>
       </c>
@@ -4337,7 +4345,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44409</v>
       </c>
@@ -4357,7 +4365,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44440</v>
       </c>
@@ -4377,7 +4385,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44470</v>
       </c>
@@ -4397,7 +4405,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44501</v>
       </c>
@@ -4417,7 +4425,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44531</v>
       </c>
@@ -4443,7 +4451,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>84</v>
@@ -4463,7 +4471,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>85</v>
       </c>
@@ -4481,7 +4489,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44562</v>
       </c>
@@ -4507,7 +4515,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44593</v>
       </c>
@@ -4527,7 +4535,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44621</v>
       </c>
@@ -4551,7 +4559,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44652</v>
       </c>
@@ -4575,7 +4583,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44682</v>
       </c>
@@ -4599,7 +4607,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44713</v>
       </c>
@@ -4625,7 +4633,7 @@
         <v>44676</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>67</v>
@@ -4645,7 +4653,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>55</v>
@@ -4667,7 +4675,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>54</v>
@@ -4689,7 +4697,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>55</v>
@@ -4711,7 +4719,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>110</v>
@@ -4733,7 +4741,7 @@
         <v>44732</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>111</v>
@@ -4753,7 +4761,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="49"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44743</v>
       </c>
@@ -4777,7 +4785,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44774</v>
       </c>
@@ -4803,7 +4811,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>46</v>
@@ -4825,7 +4833,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>107</v>
@@ -4845,7 +4853,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="49"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44805</v>
       </c>
@@ -4871,7 +4879,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>106</v>
@@ -4891,7 +4899,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="49"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44835</v>
       </c>
@@ -4917,7 +4925,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>105</v>
@@ -4937,7 +4945,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44866</v>
       </c>
@@ -4961,7 +4969,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44896</v>
       </c>
@@ -4987,7 +4995,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>54</v>
@@ -5009,7 +5017,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>103</v>
@@ -5029,7 +5037,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="49"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>95</v>
       </c>
@@ -5047,7 +5055,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>44927</v>
       </c>
@@ -5073,7 +5081,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>44958</v>
       </c>
@@ -5097,7 +5105,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>68</v>
@@ -5117,7 +5125,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>44986</v>
       </c>
@@ -5143,7 +5151,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45017</v>
       </c>
@@ -5169,7 +5177,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>54</v>
@@ -5191,7 +5199,7 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45047</v>
       </c>
@@ -5217,7 +5225,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>54</v>
@@ -5239,7 +5247,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>54</v>
@@ -5261,7 +5269,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45078</v>
       </c>
@@ -5287,7 +5295,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45108</v>
       </c>
@@ -5313,29 +5321,39 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45139</v>
       </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
+      <c r="B113" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H113" s="39"/>
+      <c r="G113" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H113" s="39">
+        <v>2</v>
+      </c>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K113" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45170</v>
       </c>
-      <c r="B114" s="20"/>
+      <c r="B114" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
@@ -5344,12 +5362,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H114" s="39"/>
+      <c r="H114" s="39">
+        <v>2</v>
+      </c>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="20"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K114" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45200</v>
       </c>
@@ -5367,7 +5389,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45231</v>
       </c>
@@ -5385,7 +5407,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45261</v>
       </c>
@@ -5403,7 +5425,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45292</v>
       </c>
@@ -5421,7 +5443,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45323</v>
       </c>
@@ -5439,7 +5461,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45352</v>
       </c>
@@ -5457,7 +5479,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>45383</v>
       </c>
@@ -5475,7 +5497,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>45413</v>
       </c>
@@ -5493,7 +5515,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>45444</v>
       </c>
@@ -5511,7 +5533,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>45474</v>
       </c>
@@ -5529,7 +5551,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>45505</v>
       </c>
@@ -5547,7 +5569,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>45536</v>
       </c>
@@ -5565,7 +5587,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>45566</v>
       </c>
@@ -5583,7 +5605,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>45597</v>
       </c>
@@ -5601,7 +5623,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>45627</v>
       </c>
@@ -5619,7 +5641,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>45658</v>
       </c>
@@ -5637,7 +5659,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>45689</v>
       </c>
@@ -5655,7 +5677,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>45717</v>
       </c>
@@ -5673,7 +5695,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>45748</v>
       </c>
@@ -5691,7 +5713,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>45778</v>
       </c>
@@ -5709,7 +5731,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>45809</v>
       </c>
@@ -5727,7 +5749,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>45839</v>
       </c>
@@ -5745,7 +5767,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>45870</v>
       </c>
@@ -5763,7 +5785,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>45901</v>
       </c>
@@ -5781,7 +5803,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>45931</v>
       </c>
@@ -5799,7 +5821,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>45962</v>
       </c>
@@ -5817,7 +5839,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>45992</v>
       </c>
@@ -5835,7 +5857,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>46023</v>
       </c>
@@ -5853,7 +5875,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>46054</v>
       </c>
@@ -5871,7 +5893,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>46082</v>
       </c>
@@ -5889,7 +5911,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>46113</v>
       </c>
@@ -5907,7 +5929,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>46143</v>
       </c>
@@ -5925,7 +5947,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>46174</v>
       </c>
@@ -5943,7 +5965,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>46204</v>
       </c>
@@ -5961,7 +5983,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>46235</v>
       </c>
@@ -5979,7 +6001,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>46266</v>
       </c>
@@ -5997,7 +6019,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>46296</v>
       </c>
@@ -6015,7 +6037,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -6031,7 +6053,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="41"/>
       <c r="B153" s="15"/>
       <c r="C153" s="42"/>
@@ -6062,10 +6084,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6088,28 +6110,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6122,7 +6144,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6151,7 +6173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>52.529000000000003</v>
       </c>
@@ -6179,17 +6201,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6210,7 +6235,11 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>143.90600000000001</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6237,7 +6266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6263,7 +6292,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6289,7 +6318,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6315,7 +6344,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6341,7 +6370,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6367,7 +6396,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6393,7 +6422,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6419,7 +6448,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6439,7 +6468,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6459,7 +6488,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6479,7 +6508,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6500,7 +6529,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6521,7 +6550,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6542,7 +6571,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6563,7 +6592,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6584,7 +6613,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6605,7 +6634,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6626,7 +6655,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6647,7 +6676,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6668,7 +6697,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6689,7 +6718,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6710,7 +6739,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6731,7 +6760,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6752,7 +6781,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6773,7 +6802,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6794,7 +6823,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6815,7 +6844,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6836,7 +6865,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6857,7 +6886,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6878,7 +6907,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6899,7 +6928,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6908,7 +6937,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6917,7 +6946,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6926,7 +6955,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6935,7 +6964,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6944,7 +6973,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6953,7 +6982,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6962,7 +6991,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6971,7 +7000,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6980,7 +7009,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6989,7 +7018,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6998,7 +7027,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7007,7 +7036,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7016,7 +7045,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7025,7 +7054,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7034,7 +7063,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7043,7 +7072,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7052,7 +7081,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7061,7 +7090,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7070,7 +7099,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7079,7 +7108,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7088,7 +7117,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7097,7 +7126,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7106,7 +7135,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7115,7 +7144,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7124,7 +7153,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7133,7 +7162,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7142,7 +7171,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7151,7 +7180,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7160,7 +7189,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/SP-VMO/DE OCAMPO, MA. ELENA DE GRANO.xlsx
+++ b/REGULAR/SP-VMO/DE OCAMPO, MA. ELENA DE GRANO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA31532E-C5FB-4EF3-9E41-62605EA61CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="203">
   <si>
     <t>PERIOD</t>
   </si>
@@ -640,12 +641,15 @@
   </si>
   <si>
     <t>12/14,15/2023</t>
+  </si>
+  <si>
+    <t>1/11,12/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1333,7 +1337,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1376,7 +1380,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1440,7 +1444,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1504,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1566,7 +1570,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1629,7 +1633,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1727,7 +1731,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1790,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1855,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1894,7 +1898,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1969,7 +1973,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2155,7 +2159,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2225,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2279,7 +2283,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2345,7 +2349,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2405,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2476,7 +2480,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2519,7 +2523,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,7 +2589,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2641,7 +2645,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2720,7 +2724,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2737,25 +2741,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K309" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K309" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3062,7 +3066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3072,7 +3076,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3080,34 +3084,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A254" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A266" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K272" sqref="K272"/>
+      <selection pane="bottomLeft" activeCell="K275" sqref="K275"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3128,7 +3132,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3148,7 +3152,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3170,7 +3174,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3178,7 +3182,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3191,7 +3195,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3208,7 +3212,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3243,7 +3247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3252,7 +3256,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>107.41500000000001</v>
+        <v>106.66500000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3262,12 +3266,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>49.391999999999996</v>
+        <v>50.641999999999996</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>114</v>
       </c>
@@ -3289,7 +3293,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>40437</v>
       </c>
@@ -3309,7 +3313,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>40482</v>
       </c>
@@ -3329,7 +3333,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>40512</v>
       </c>
@@ -3349,7 +3353,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>40543</v>
       </c>
@@ -3369,7 +3373,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>115</v>
       </c>
@@ -3387,7 +3391,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>40574</v>
       </c>
@@ -3411,7 +3415,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>40602</v>
       </c>
@@ -3431,7 +3435,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>40633</v>
       </c>
@@ -3457,7 +3461,7 @@
         <v>40631</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>40663</v>
       </c>
@@ -3481,7 +3485,7 @@
         <v>40666</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>40694</v>
       </c>
@@ -3507,7 +3511,7 @@
         <v>40687</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>40724</v>
       </c>
@@ -3535,7 +3539,7 @@
         <v>40703</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
         <v>53</v>
@@ -3554,7 +3558,7 @@
         <v>40710</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>118</v>
@@ -3571,7 +3575,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>40755</v>
       </c>
@@ -3597,7 +3601,7 @@
         <v>40745</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>119</v>
@@ -3617,7 +3621,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>40786</v>
       </c>
@@ -3643,7 +3647,7 @@
         <v>40764</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>120</v>
@@ -3663,7 +3667,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>40816</v>
       </c>
@@ -3689,7 +3693,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>122</v>
@@ -3709,7 +3713,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>40847</v>
       </c>
@@ -3733,7 +3737,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>40877</v>
       </c>
@@ -3757,7 +3761,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <v>40908</v>
       </c>
@@ -3783,7 +3787,7 @@
         <v>40878</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>67</v>
@@ -3800,7 +3804,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>103</v>
@@ -3817,7 +3821,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
         <v>127</v>
       </c>
@@ -3832,7 +3836,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>40939</v>
       </c>
@@ -3858,7 +3862,7 @@
         <v>40925</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>128</v>
@@ -3878,7 +3882,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>40968</v>
       </c>
@@ -3902,7 +3906,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>129</v>
@@ -3922,7 +3926,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>40999</v>
       </c>
@@ -3948,7 +3952,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>119</v>
@@ -3968,7 +3972,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>41029</v>
       </c>
@@ -3992,7 +3996,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>131</v>
@@ -4009,7 +4013,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <v>41060</v>
       </c>
@@ -4035,7 +4039,7 @@
         <v>41039</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>57</v>
@@ -4054,7 +4058,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>53</v>
@@ -4071,7 +4075,7 @@
         <v>41054</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>133</v>
@@ -4088,7 +4092,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>41090</v>
       </c>
@@ -4114,7 +4118,7 @@
         <v>41061</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>53</v>
@@ -4133,7 +4137,7 @@
         <v>41075</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>135</v>
@@ -4150,7 +4154,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="49"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <v>41121</v>
       </c>
@@ -4176,7 +4180,7 @@
         <v>41109</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>54</v>
@@ -4195,7 +4199,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>136</v>
@@ -4212,7 +4216,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>41152</v>
       </c>
@@ -4236,7 +4240,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <v>41182</v>
       </c>
@@ -4262,7 +4266,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>140</v>
@@ -4282,7 +4286,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <v>41213</v>
       </c>
@@ -4304,7 +4308,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23"/>
       <c r="B58" s="20" t="s">
         <v>53</v>
@@ -4319,7 +4323,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>141</v>
@@ -4336,7 +4340,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <v>41243</v>
       </c>
@@ -4362,7 +4366,7 @@
         <v>41227</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>59</v>
@@ -4381,7 +4385,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>142</v>
@@ -4398,7 +4402,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <v>41274</v>
       </c>
@@ -4424,7 +4428,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>145</v>
@@ -4441,7 +4445,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>146</v>
       </c>
@@ -4459,7 +4463,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <v>41305</v>
       </c>
@@ -4483,7 +4487,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <v>41333</v>
       </c>
@@ -4509,7 +4513,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>148</v>
@@ -4529,7 +4533,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <v>41364</v>
       </c>
@@ -4557,7 +4561,7 @@
         <v>41351</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23"/>
       <c r="B70" s="20" t="s">
         <v>149</v>
@@ -4577,7 +4581,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <v>41394</v>
       </c>
@@ -4603,7 +4607,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>66</v>
@@ -4620,7 +4624,7 @@
         <v>41397</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23"/>
       <c r="B73" s="20" t="s">
         <v>151</v>
@@ -4637,7 +4641,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <v>41425</v>
       </c>
@@ -4661,7 +4665,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <v>41455</v>
       </c>
@@ -4687,7 +4691,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>154</v>
@@ -4707,7 +4711,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <v>41486</v>
       </c>
@@ -4731,7 +4735,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <v>41517</v>
       </c>
@@ -4755,7 +4759,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <v>41547</v>
       </c>
@@ -4779,7 +4783,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <v>41578</v>
       </c>
@@ -4805,7 +4809,7 @@
         <v>41535</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>53</v>
@@ -4824,7 +4828,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>159</v>
@@ -4841,7 +4845,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
         <v>41608</v>
       </c>
@@ -4867,7 +4871,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>140</v>
@@ -4887,7 +4891,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <v>41639</v>
       </c>
@@ -4913,7 +4917,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>162</v>
       </c>
@@ -4931,7 +4935,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <v>41670</v>
       </c>
@@ -4957,7 +4961,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>57</v>
@@ -4976,7 +4980,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>53</v>
@@ -4995,7 +4999,7 @@
         <v>41662</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <v>41698</v>
       </c>
@@ -5015,7 +5019,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <v>41729</v>
       </c>
@@ -5041,7 +5045,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>41759</v>
       </c>
@@ -5061,7 +5065,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <v>41790</v>
       </c>
@@ -5085,7 +5089,7 @@
         <v>41768</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>53</v>
@@ -5105,7 +5109,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <v>41820</v>
       </c>
@@ -5131,7 +5135,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>53</v>
@@ -5153,7 +5157,7 @@
         <v>41807</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <v>41851</v>
       </c>
@@ -5179,7 +5183,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <v>41882</v>
       </c>
@@ -5205,7 +5209,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
         <v>41912</v>
       </c>
@@ -5231,7 +5235,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <v>41943</v>
       </c>
@@ -5251,7 +5255,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <v>41973</v>
       </c>
@@ -5271,7 +5275,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>42004</v>
       </c>
@@ -5297,7 +5301,7 @@
         <v>41975</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>54</v>
@@ -5319,7 +5323,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="48" t="s">
         <v>169</v>
       </c>
@@ -5337,7 +5341,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <v>42035</v>
       </c>
@@ -5363,7 +5367,7 @@
         <v>42025</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>42063</v>
       </c>
@@ -5383,7 +5387,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <v>42094</v>
       </c>
@@ -5409,7 +5413,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>99</v>
@@ -5429,7 +5433,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <v>42124</v>
       </c>
@@ -5449,7 +5453,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <v>42155</v>
       </c>
@@ -5469,7 +5473,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
         <v>42185</v>
       </c>
@@ -5495,7 +5499,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <v>42216</v>
       </c>
@@ -5521,7 +5525,7 @@
         <v>42206</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <v>42247</v>
       </c>
@@ -5547,7 +5551,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <v>42277</v>
       </c>
@@ -5567,7 +5571,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <v>42308</v>
       </c>
@@ -5593,7 +5597,7 @@
         <v>42332</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>174</v>
@@ -5613,7 +5617,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
         <v>42338</v>
       </c>
@@ -5633,7 +5637,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <v>42369</v>
       </c>
@@ -5653,7 +5657,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="48" t="s">
         <v>175</v>
       </c>
@@ -5671,7 +5675,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
         <v>42400</v>
       </c>
@@ -5697,7 +5701,7 @@
         <v>42424</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>53</v>
@@ -5716,7 +5720,7 @@
         <v>42409</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>53</v>
@@ -5735,7 +5739,7 @@
         <v>42429</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <v>42429</v>
       </c>
@@ -5755,7 +5759,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
         <v>42460</v>
       </c>
@@ -5775,7 +5779,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5788,7 +5792,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <v>42490</v>
       </c>
@@ -5808,7 +5812,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23">
         <v>42521</v>
       </c>
@@ -5828,7 +5832,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <v>42551</v>
       </c>
@@ -5854,7 +5858,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>45</v>
@@ -5876,7 +5880,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <v>42582</v>
       </c>
@@ -5900,7 +5904,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>66</v>
@@ -5920,7 +5924,7 @@
         <v>42636</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23">
         <v>42613</v>
       </c>
@@ -5940,7 +5944,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <v>42643</v>
       </c>
@@ -5960,7 +5964,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <v>42674</v>
       </c>
@@ -5980,7 +5984,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
         <v>42704</v>
       </c>
@@ -6000,7 +6004,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <v>42735</v>
       </c>
@@ -6026,7 +6030,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>92</v>
@@ -6046,7 +6050,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="48" t="s">
         <v>181</v>
       </c>
@@ -6064,7 +6068,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <v>42766</v>
       </c>
@@ -6090,7 +6094,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>183</v>
@@ -6110,7 +6114,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23">
         <v>42794</v>
       </c>
@@ -6136,7 +6140,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>184</v>
@@ -6156,7 +6160,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <v>42825</v>
       </c>
@@ -6180,7 +6184,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>53</v>
@@ -6199,7 +6203,7 @@
         <v>42880</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>186</v>
@@ -6216,7 +6220,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
         <v>42855</v>
       </c>
@@ -6236,7 +6240,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <v>42886</v>
       </c>
@@ -6256,7 +6260,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="49"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23">
         <v>42916</v>
       </c>
@@ -6282,7 +6286,7 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>53</v>
@@ -6301,7 +6305,7 @@
         <v>42899</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>53</v>
@@ -6320,7 +6324,7 @@
         <v>42913</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>187</v>
@@ -6340,7 +6344,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="49"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <v>42947</v>
       </c>
@@ -6364,7 +6368,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <v>42978</v>
       </c>
@@ -6390,7 +6394,7 @@
         <v>42982</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>187</v>
@@ -6410,7 +6414,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="49"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <v>43008</v>
       </c>
@@ -6436,7 +6440,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>189</v>
@@ -6456,7 +6460,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <v>43039</v>
       </c>
@@ -6480,7 +6484,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <v>43069</v>
       </c>
@@ -6500,7 +6504,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <v>43100</v>
       </c>
@@ -6526,7 +6530,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>83</v>
@@ -6545,7 +6549,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>194</v>
@@ -6562,7 +6566,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>53</v>
@@ -6581,7 +6585,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>53</v>
@@ -6600,7 +6604,7 @@
         <v>43063</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="48" t="s">
         <v>196</v>
       </c>
@@ -6615,7 +6619,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>43101</v>
       </c>
@@ -6641,7 +6645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>43132</v>
       </c>
@@ -6665,7 +6669,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>45</v>
@@ -6687,7 +6691,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>43160</v>
       </c>
@@ -6711,7 +6715,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>43191</v>
       </c>
@@ -6731,7 +6735,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>43221</v>
       </c>
@@ -6751,7 +6755,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>43252</v>
       </c>
@@ -6771,7 +6775,7 @@
       <c r="J171" s="12"/>
       <c r="K171" s="15"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>43282</v>
       </c>
@@ -6795,7 +6799,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>43313</v>
       </c>
@@ -6819,7 +6823,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>43344</v>
       </c>
@@ -6839,7 +6843,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>43374</v>
       </c>
@@ -6865,7 +6869,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>54</v>
@@ -6887,7 +6891,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>43405</v>
       </c>
@@ -6913,7 +6917,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>57</v>
@@ -6935,7 +6939,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>43435</v>
       </c>
@@ -6961,7 +6965,7 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>59</v>
@@ -6983,7 +6987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>45</v>
@@ -7005,7 +7009,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="48" t="s">
         <v>62</v>
       </c>
@@ -7023,7 +7027,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>43466</v>
       </c>
@@ -7047,7 +7051,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>53</v>
@@ -7069,7 +7073,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>43497</v>
       </c>
@@ -7093,7 +7097,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>45</v>
@@ -7115,7 +7119,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>43525</v>
       </c>
@@ -7135,7 +7139,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>43556</v>
       </c>
@@ -7161,7 +7165,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>53</v>
@@ -7183,7 +7187,7 @@
         <v>43573</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>53</v>
@@ -7205,7 +7209,7 @@
         <v>43584</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>43586</v>
       </c>
@@ -7229,7 +7233,7 @@
         <v>43588</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>43617</v>
       </c>
@@ -7253,7 +7257,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>43647</v>
       </c>
@@ -7273,7 +7277,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>43678</v>
       </c>
@@ -7293,7 +7297,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>43709</v>
       </c>
@@ -7313,7 +7317,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>43739</v>
       </c>
@@ -7333,7 +7337,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>43770</v>
       </c>
@@ -7357,7 +7361,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>53</v>
@@ -7379,7 +7383,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>43800</v>
       </c>
@@ -7405,7 +7409,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>57</v>
@@ -7427,7 +7431,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="48" t="s">
         <v>72</v>
       </c>
@@ -7445,7 +7449,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>43831</v>
       </c>
@@ -7465,7 +7469,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>43862</v>
       </c>
@@ -7489,7 +7493,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>43891</v>
       </c>
@@ -7513,7 +7517,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>43922</v>
       </c>
@@ -7533,7 +7537,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>43952</v>
       </c>
@@ -7553,7 +7557,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>43983</v>
       </c>
@@ -7573,7 +7577,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>44013</v>
       </c>
@@ -7599,7 +7603,7 @@
         <v>44042</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>44044</v>
       </c>
@@ -7625,7 +7629,7 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>44075</v>
       </c>
@@ -7649,7 +7653,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>44105</v>
       </c>
@@ -7669,7 +7673,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>44136</v>
       </c>
@@ -7689,7 +7693,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>44166</v>
       </c>
@@ -7713,7 +7717,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>76</v>
@@ -7735,7 +7739,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>78</v>
@@ -7755,7 +7759,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="48" t="s">
         <v>79</v>
       </c>
@@ -7773,7 +7777,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>44197</v>
       </c>
@@ -7799,7 +7803,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>44228</v>
       </c>
@@ -7819,7 +7823,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>44256</v>
       </c>
@@ -7839,7 +7843,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>44287</v>
       </c>
@@ -7859,7 +7863,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>44317</v>
       </c>
@@ -7879,7 +7883,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>44348</v>
       </c>
@@ -7899,7 +7903,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>44378</v>
       </c>
@@ -7923,7 +7927,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>44409</v>
       </c>
@@ -7943,7 +7947,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>44440</v>
       </c>
@@ -7963,7 +7967,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>44470</v>
       </c>
@@ -7983,7 +7987,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>44501</v>
       </c>
@@ -8003,7 +8007,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>44531</v>
       </c>
@@ -8029,7 +8033,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>83</v>
@@ -8049,7 +8053,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="48" t="s">
         <v>84</v>
       </c>
@@ -8067,7 +8071,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>44562</v>
       </c>
@@ -8093,7 +8097,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>44593</v>
       </c>
@@ -8113,7 +8117,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>44621</v>
       </c>
@@ -8137,7 +8141,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>44652</v>
       </c>
@@ -8161,7 +8165,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>44682</v>
       </c>
@@ -8185,7 +8189,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>44713</v>
       </c>
@@ -8211,7 +8215,7 @@
         <v>44676</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>66</v>
@@ -8231,7 +8235,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>54</v>
@@ -8253,7 +8257,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>53</v>
@@ -8275,7 +8279,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>54</v>
@@ -8297,7 +8301,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>109</v>
@@ -8319,7 +8323,7 @@
         <v>44732</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>110</v>
@@ -8339,7 +8343,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="49"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>44743</v>
       </c>
@@ -8363,7 +8367,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>44774</v>
       </c>
@@ -8389,7 +8393,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>45</v>
@@ -8411,7 +8415,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>106</v>
@@ -8431,7 +8435,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="49"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>44805</v>
       </c>
@@ -8457,7 +8461,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>105</v>
@@ -8477,7 +8481,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="49"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>44835</v>
       </c>
@@ -8503,7 +8507,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>104</v>
@@ -8523,7 +8527,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>44866</v>
       </c>
@@ -8547,7 +8551,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>44896</v>
       </c>
@@ -8573,7 +8577,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>53</v>
@@ -8595,7 +8599,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>102</v>
@@ -8615,7 +8619,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="49"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="48" t="s">
         <v>94</v>
       </c>
@@ -8633,7 +8637,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>44927</v>
       </c>
@@ -8659,7 +8663,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>44958</v>
       </c>
@@ -8683,7 +8687,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>67</v>
@@ -8703,7 +8707,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <v>44986</v>
       </c>
@@ -8729,7 +8733,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>45017</v>
       </c>
@@ -8755,7 +8759,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>53</v>
@@ -8777,7 +8781,7 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>45047</v>
       </c>
@@ -8803,7 +8807,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>53</v>
@@ -8825,7 +8829,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>53</v>
@@ -8847,7 +8851,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>45078</v>
       </c>
@@ -8873,7 +8877,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>45108</v>
       </c>
@@ -8899,7 +8903,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>45139</v>
       </c>
@@ -8925,7 +8929,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>45170</v>
       </c>
@@ -8951,7 +8955,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>45200</v>
       </c>
@@ -8971,7 +8975,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>45231</v>
       </c>
@@ -8997,7 +9001,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>53</v>
@@ -9019,20 +9023,22 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>45261</v>
       </c>
       <c r="B272" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C272" s="13"/>
+      <c r="C272" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D272" s="39"/>
       <c r="E272" s="9"/>
       <c r="F272" s="20"/>
-      <c r="G272" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G272" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H272" s="39">
         <v>2</v>
@@ -9043,7 +9049,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="48" t="s">
         <v>200</v>
       </c>
@@ -9061,13 +9067,17 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>45292</v>
       </c>
-      <c r="B274" s="20"/>
+      <c r="B274" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C274" s="13"/>
-      <c r="D274" s="39"/>
+      <c r="D274" s="39">
+        <v>2</v>
+      </c>
       <c r="E274" s="9"/>
       <c r="F274" s="20"/>
       <c r="G274" s="13" t="str">
@@ -9077,9 +9087,11 @@
       <c r="H274" s="39"/>
       <c r="I274" s="9"/>
       <c r="J274" s="11"/>
-      <c r="K274" s="20"/>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K274" s="20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>45323</v>
       </c>
@@ -9097,7 +9109,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>45352</v>
       </c>
@@ -9115,7 +9127,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>45383</v>
       </c>
@@ -9133,7 +9145,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>45413</v>
       </c>
@@ -9151,7 +9163,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>45444</v>
       </c>
@@ -9169,7 +9181,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>45474</v>
       </c>
@@ -9187,7 +9199,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>45505</v>
       </c>
@@ -9205,7 +9217,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>45536</v>
       </c>
@@ -9223,7 +9235,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>45566</v>
       </c>
@@ -9241,7 +9253,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>45597</v>
       </c>
@@ -9259,7 +9271,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>45627</v>
       </c>
@@ -9277,7 +9289,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>45658</v>
       </c>
@@ -9295,7 +9307,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>45689</v>
       </c>
@@ -9313,7 +9325,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>45717</v>
       </c>
@@ -9331,7 +9343,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>45748</v>
       </c>
@@ -9349,7 +9361,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>45778</v>
       </c>
@@ -9367,7 +9379,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>45809</v>
       </c>
@@ -9385,7 +9397,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>45839</v>
       </c>
@@ -9403,7 +9415,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>45870</v>
       </c>
@@ -9421,7 +9433,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>45901</v>
       </c>
@@ -9439,7 +9451,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>45931</v>
       </c>
@@ -9457,7 +9469,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>45962</v>
       </c>
@@ -9475,7 +9487,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>45992</v>
       </c>
@@ -9493,7 +9505,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>46023</v>
       </c>
@@ -9511,7 +9523,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>46054</v>
       </c>
@@ -9529,7 +9541,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>46082</v>
       </c>
@@ -9547,7 +9559,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>46113</v>
       </c>
@@ -9565,7 +9577,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>46143</v>
       </c>
@@ -9583,7 +9595,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>46174</v>
       </c>
@@ -9601,7 +9613,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>46204</v>
       </c>
@@ -9619,7 +9631,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>46235</v>
       </c>
@@ -9637,7 +9649,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>46266</v>
       </c>
@@ -9655,7 +9667,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>46296</v>
       </c>
@@ -9673,7 +9685,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -9689,7 +9701,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="41"/>
       <c r="B309" s="15"/>
       <c r="C309" s="42"/>
@@ -9720,10 +9732,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9746,28 +9758,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -9780,7 +9792,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9809,7 +9821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.66700000000000004</v>
       </c>
@@ -9839,17 +9851,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -9870,7 +9882,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -9897,7 +9909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9923,7 +9935,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9949,7 +9961,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9975,7 +9987,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10001,7 +10013,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10027,7 +10039,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10053,7 +10065,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10079,7 +10091,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10099,7 +10111,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10119,7 +10131,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10139,7 +10151,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10160,7 +10172,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10181,7 +10193,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10202,7 +10214,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10223,7 +10235,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10244,7 +10256,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10265,7 +10277,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10286,7 +10298,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10307,7 +10319,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10328,7 +10340,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10349,7 +10361,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10370,7 +10382,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10391,7 +10403,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10412,7 +10424,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10433,7 +10445,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10454,7 +10466,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10475,7 +10487,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10496,7 +10508,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10517,7 +10529,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10538,7 +10550,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10559,7 +10571,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10568,7 +10580,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10577,7 +10589,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10586,7 +10598,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10595,7 +10607,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10604,7 +10616,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10613,7 +10625,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10622,7 +10634,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10631,7 +10643,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10640,7 +10652,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10649,7 +10661,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10658,7 +10670,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10667,7 +10679,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10676,7 +10688,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10685,7 +10697,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10694,7 +10706,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10703,7 +10715,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10712,7 +10724,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10721,7 +10733,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10730,7 +10742,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10739,7 +10751,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10748,7 +10760,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10757,7 +10769,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10766,7 +10778,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10775,7 +10787,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10784,7 +10796,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10793,7 +10805,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10802,7 +10814,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10811,7 +10823,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10820,7 +10832,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/SP-VMO/DE OCAMPO, MA. ELENA DE GRANO.xlsx
+++ b/REGULAR/SP-VMO/DE OCAMPO, MA. ELENA DE GRANO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA31532E-C5FB-4EF3-9E41-62605EA61CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -649,7 +648,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1337,7 +1336,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1379,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1443,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1503,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,7 +1569,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1632,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +1730,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1789,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1854,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1897,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,7 +1972,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,7 +2158,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2225,7 +2224,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2282,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2348,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2404,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2479,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2522,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2588,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2644,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2724,7 +2723,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2741,25 +2740,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K309" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K309" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3066,7 +3065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3076,7 +3075,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3084,34 +3083,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A266" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A266" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K275" sqref="K275"/>
+      <selection pane="bottomLeft" activeCell="K274" sqref="K274"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3132,7 +3131,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3152,7 +3151,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3174,7 +3173,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3182,7 +3181,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3195,7 +3194,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3212,7 +3211,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3247,7 +3246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3271,7 +3270,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>114</v>
       </c>
@@ -3293,7 +3292,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>40437</v>
       </c>
@@ -3313,7 +3312,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>40482</v>
       </c>
@@ -3333,7 +3332,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>40512</v>
       </c>
@@ -3353,7 +3352,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>40543</v>
       </c>
@@ -3373,7 +3372,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>115</v>
       </c>
@@ -3391,7 +3390,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>40574</v>
       </c>
@@ -3415,7 +3414,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>40602</v>
       </c>
@@ -3435,7 +3434,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>40633</v>
       </c>
@@ -3461,7 +3460,7 @@
         <v>40631</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>40663</v>
       </c>
@@ -3485,7 +3484,7 @@
         <v>40666</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>40694</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>40687</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>40724</v>
       </c>
@@ -3539,7 +3538,7 @@
         <v>40703</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
         <v>53</v>
@@ -3558,7 +3557,7 @@
         <v>40710</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>118</v>
@@ -3575,7 +3574,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>40755</v>
       </c>
@@ -3601,7 +3600,7 @@
         <v>40745</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>119</v>
@@ -3621,7 +3620,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>40786</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>40764</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>120</v>
@@ -3667,7 +3666,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>40816</v>
       </c>
@@ -3693,7 +3692,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>122</v>
@@ -3713,7 +3712,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>40847</v>
       </c>
@@ -3737,7 +3736,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>40877</v>
       </c>
@@ -3761,7 +3760,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>40908</v>
       </c>
@@ -3787,7 +3786,7 @@
         <v>40878</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>67</v>
@@ -3804,7 +3803,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>103</v>
@@ -3821,7 +3820,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>127</v>
       </c>
@@ -3836,7 +3835,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>40939</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>40925</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>128</v>
@@ -3882,7 +3881,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>40968</v>
       </c>
@@ -3906,7 +3905,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>129</v>
@@ -3926,7 +3925,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>40999</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>119</v>
@@ -3972,7 +3971,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>41029</v>
       </c>
@@ -3996,7 +3995,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>131</v>
@@ -4013,7 +4012,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>41060</v>
       </c>
@@ -4039,7 +4038,7 @@
         <v>41039</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>57</v>
@@ -4058,7 +4057,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>53</v>
@@ -4075,7 +4074,7 @@
         <v>41054</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>133</v>
@@ -4092,7 +4091,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>41090</v>
       </c>
@@ -4118,7 +4117,7 @@
         <v>41061</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>53</v>
@@ -4137,7 +4136,7 @@
         <v>41075</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>135</v>
@@ -4154,7 +4153,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="49"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>41121</v>
       </c>
@@ -4180,7 +4179,7 @@
         <v>41109</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>54</v>
@@ -4199,7 +4198,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>136</v>
@@ -4216,7 +4215,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>41152</v>
       </c>
@@ -4240,7 +4239,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>41182</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>140</v>
@@ -4286,7 +4285,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>41213</v>
       </c>
@@ -4308,7 +4307,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="20" t="s">
         <v>53</v>
@@ -4323,7 +4322,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>141</v>
@@ -4340,7 +4339,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>41243</v>
       </c>
@@ -4366,7 +4365,7 @@
         <v>41227</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>59</v>
@@ -4385,7 +4384,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>142</v>
@@ -4402,7 +4401,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>41274</v>
       </c>
@@ -4428,7 +4427,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>145</v>
@@ -4445,7 +4444,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>146</v>
       </c>
@@ -4463,7 +4462,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>41305</v>
       </c>
@@ -4487,7 +4486,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>41333</v>
       </c>
@@ -4513,7 +4512,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>148</v>
@@ -4533,7 +4532,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>41364</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>41351</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="20" t="s">
         <v>149</v>
@@ -4581,7 +4580,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>41394</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>66</v>
@@ -4624,7 +4623,7 @@
         <v>41397</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="20" t="s">
         <v>151</v>
@@ -4641,7 +4640,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>41425</v>
       </c>
@@ -4665,7 +4664,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>41455</v>
       </c>
@@ -4691,7 +4690,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>154</v>
@@ -4711,7 +4710,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>41486</v>
       </c>
@@ -4735,7 +4734,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>41517</v>
       </c>
@@ -4759,7 +4758,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>41547</v>
       </c>
@@ -4783,7 +4782,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>41578</v>
       </c>
@@ -4809,7 +4808,7 @@
         <v>41535</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>53</v>
@@ -4828,7 +4827,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>159</v>
@@ -4845,7 +4844,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>41608</v>
       </c>
@@ -4871,7 +4870,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>140</v>
@@ -4891,7 +4890,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>41639</v>
       </c>
@@ -4917,7 +4916,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>162</v>
       </c>
@@ -4935,7 +4934,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>41670</v>
       </c>
@@ -4961,7 +4960,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>57</v>
@@ -4980,7 +4979,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>53</v>
@@ -4999,7 +4998,7 @@
         <v>41662</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>41698</v>
       </c>
@@ -5019,7 +5018,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>41729</v>
       </c>
@@ -5045,7 +5044,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>41759</v>
       </c>
@@ -5065,7 +5064,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>41790</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>41768</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>53</v>
@@ -5109,7 +5108,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>41820</v>
       </c>
@@ -5135,7 +5134,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>53</v>
@@ -5157,7 +5156,7 @@
         <v>41807</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>41851</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>41882</v>
       </c>
@@ -5209,7 +5208,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>41912</v>
       </c>
@@ -5235,7 +5234,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>41943</v>
       </c>
@@ -5255,7 +5254,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>41973</v>
       </c>
@@ -5275,7 +5274,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>42004</v>
       </c>
@@ -5301,7 +5300,7 @@
         <v>41975</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>54</v>
@@ -5323,7 +5322,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>169</v>
       </c>
@@ -5341,7 +5340,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>42035</v>
       </c>
@@ -5367,7 +5366,7 @@
         <v>42025</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>42063</v>
       </c>
@@ -5387,7 +5386,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>42094</v>
       </c>
@@ -5413,7 +5412,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>99</v>
@@ -5433,7 +5432,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>42124</v>
       </c>
@@ -5453,7 +5452,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>42155</v>
       </c>
@@ -5473,7 +5472,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>42185</v>
       </c>
@@ -5499,7 +5498,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>42216</v>
       </c>
@@ -5525,7 +5524,7 @@
         <v>42206</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>42247</v>
       </c>
@@ -5551,7 +5550,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>42277</v>
       </c>
@@ -5571,7 +5570,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>42308</v>
       </c>
@@ -5597,7 +5596,7 @@
         <v>42332</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>174</v>
@@ -5617,7 +5616,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>42338</v>
       </c>
@@ -5637,7 +5636,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>42369</v>
       </c>
@@ -5657,7 +5656,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
         <v>175</v>
       </c>
@@ -5675,7 +5674,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>42400</v>
       </c>
@@ -5701,7 +5700,7 @@
         <v>42424</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>53</v>
@@ -5720,7 +5719,7 @@
         <v>42409</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>53</v>
@@ -5739,7 +5738,7 @@
         <v>42429</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>42429</v>
       </c>
@@ -5759,7 +5758,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>42460</v>
       </c>
@@ -5779,7 +5778,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5792,7 +5791,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>42490</v>
       </c>
@@ -5812,7 +5811,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>42521</v>
       </c>
@@ -5832,7 +5831,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>42551</v>
       </c>
@@ -5858,7 +5857,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>45</v>
@@ -5880,7 +5879,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>42582</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>66</v>
@@ -5924,7 +5923,7 @@
         <v>42636</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>42613</v>
       </c>
@@ -5944,7 +5943,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>42643</v>
       </c>
@@ -5964,7 +5963,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>42674</v>
       </c>
@@ -5984,7 +5983,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>42704</v>
       </c>
@@ -6004,7 +6003,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>42735</v>
       </c>
@@ -6030,7 +6029,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>92</v>
@@ -6050,7 +6049,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="48" t="s">
         <v>181</v>
       </c>
@@ -6068,7 +6067,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>42766</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>183</v>
@@ -6114,7 +6113,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>42794</v>
       </c>
@@ -6140,7 +6139,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>184</v>
@@ -6160,7 +6159,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>42825</v>
       </c>
@@ -6184,7 +6183,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>53</v>
@@ -6203,7 +6202,7 @@
         <v>42880</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>186</v>
@@ -6220,7 +6219,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>42855</v>
       </c>
@@ -6240,7 +6239,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>42886</v>
       </c>
@@ -6260,7 +6259,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="49"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>42916</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>53</v>
@@ -6305,7 +6304,7 @@
         <v>42899</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>53</v>
@@ -6324,7 +6323,7 @@
         <v>42913</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>187</v>
@@ -6344,7 +6343,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="49"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>42947</v>
       </c>
@@ -6368,7 +6367,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>42978</v>
       </c>
@@ -6394,7 +6393,7 @@
         <v>42982</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>187</v>
@@ -6414,7 +6413,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="49"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>43008</v>
       </c>
@@ -6440,7 +6439,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>189</v>
@@ -6460,7 +6459,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>43039</v>
       </c>
@@ -6484,7 +6483,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>43069</v>
       </c>
@@ -6504,7 +6503,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>43100</v>
       </c>
@@ -6530,7 +6529,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>83</v>
@@ -6549,7 +6548,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>194</v>
@@ -6566,7 +6565,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>53</v>
@@ -6585,7 +6584,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>53</v>
@@ -6604,7 +6603,7 @@
         <v>43063</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="48" t="s">
         <v>196</v>
       </c>
@@ -6619,7 +6618,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>43101</v>
       </c>
@@ -6645,7 +6644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>43132</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>45</v>
@@ -6691,7 +6690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>43160</v>
       </c>
@@ -6715,7 +6714,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>43191</v>
       </c>
@@ -6735,7 +6734,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>43221</v>
       </c>
@@ -6755,7 +6754,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>43252</v>
       </c>
@@ -6775,7 +6774,7 @@
       <c r="J171" s="12"/>
       <c r="K171" s="15"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>43282</v>
       </c>
@@ -6799,7 +6798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>43313</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>43344</v>
       </c>
@@ -6843,7 +6842,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>43374</v>
       </c>
@@ -6869,7 +6868,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>54</v>
@@ -6891,7 +6890,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>43405</v>
       </c>
@@ -6917,7 +6916,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>57</v>
@@ -6939,7 +6938,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>43435</v>
       </c>
@@ -6965,7 +6964,7 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>59</v>
@@ -6987,7 +6986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>45</v>
@@ -7009,7 +7008,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="48" t="s">
         <v>62</v>
       </c>
@@ -7027,7 +7026,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>43466</v>
       </c>
@@ -7051,7 +7050,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>53</v>
@@ -7073,7 +7072,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>43497</v>
       </c>
@@ -7097,7 +7096,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>45</v>
@@ -7119,7 +7118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>43525</v>
       </c>
@@ -7139,7 +7138,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>43556</v>
       </c>
@@ -7165,7 +7164,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>53</v>
@@ -7187,7 +7186,7 @@
         <v>43573</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>53</v>
@@ -7209,7 +7208,7 @@
         <v>43584</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>43586</v>
       </c>
@@ -7233,7 +7232,7 @@
         <v>43588</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>43617</v>
       </c>
@@ -7257,7 +7256,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>43647</v>
       </c>
@@ -7277,7 +7276,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>43678</v>
       </c>
@@ -7297,7 +7296,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>43709</v>
       </c>
@@ -7317,7 +7316,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>43739</v>
       </c>
@@ -7337,7 +7336,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>43770</v>
       </c>
@@ -7361,7 +7360,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>53</v>
@@ -7383,7 +7382,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>43800</v>
       </c>
@@ -7409,7 +7408,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>57</v>
@@ -7431,7 +7430,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="48" t="s">
         <v>72</v>
       </c>
@@ -7449,7 +7448,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>43831</v>
       </c>
@@ -7469,7 +7468,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>43862</v>
       </c>
@@ -7493,7 +7492,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>43891</v>
       </c>
@@ -7517,7 +7516,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>43922</v>
       </c>
@@ -7537,7 +7536,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>43952</v>
       </c>
@@ -7557,7 +7556,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>43983</v>
       </c>
@@ -7577,7 +7576,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>44013</v>
       </c>
@@ -7603,7 +7602,7 @@
         <v>44042</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>44044</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>44075</v>
       </c>
@@ -7653,7 +7652,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>44105</v>
       </c>
@@ -7673,7 +7672,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>44136</v>
       </c>
@@ -7693,7 +7692,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>44166</v>
       </c>
@@ -7717,7 +7716,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>76</v>
@@ -7739,7 +7738,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>78</v>
@@ -7759,7 +7758,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="48" t="s">
         <v>79</v>
       </c>
@@ -7777,7 +7776,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>44197</v>
       </c>
@@ -7803,7 +7802,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>44228</v>
       </c>
@@ -7823,7 +7822,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>44256</v>
       </c>
@@ -7843,7 +7842,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>44287</v>
       </c>
@@ -7863,7 +7862,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>44317</v>
       </c>
@@ -7883,7 +7882,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>44348</v>
       </c>
@@ -7903,7 +7902,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>44378</v>
       </c>
@@ -7927,7 +7926,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>44409</v>
       </c>
@@ -7947,7 +7946,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>44440</v>
       </c>
@@ -7967,7 +7966,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>44470</v>
       </c>
@@ -7987,7 +7986,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>44501</v>
       </c>
@@ -8007,7 +8006,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>44531</v>
       </c>
@@ -8033,7 +8032,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>83</v>
@@ -8053,7 +8052,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="48" t="s">
         <v>84</v>
       </c>
@@ -8071,7 +8070,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>44562</v>
       </c>
@@ -8097,7 +8096,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>44593</v>
       </c>
@@ -8117,7 +8116,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>44621</v>
       </c>
@@ -8141,7 +8140,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>44652</v>
       </c>
@@ -8165,7 +8164,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>44682</v>
       </c>
@@ -8189,7 +8188,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>44713</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>44676</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>66</v>
@@ -8235,7 +8234,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>54</v>
@@ -8257,7 +8256,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>53</v>
@@ -8279,7 +8278,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>54</v>
@@ -8301,7 +8300,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>109</v>
@@ -8323,7 +8322,7 @@
         <v>44732</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>110</v>
@@ -8343,7 +8342,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="49"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>44743</v>
       </c>
@@ -8367,7 +8366,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>44774</v>
       </c>
@@ -8393,7 +8392,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>45</v>
@@ -8415,7 +8414,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>106</v>
@@ -8435,7 +8434,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="49"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>44805</v>
       </c>
@@ -8461,7 +8460,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>105</v>
@@ -8481,7 +8480,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="49"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>44835</v>
       </c>
@@ -8507,7 +8506,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>104</v>
@@ -8527,7 +8526,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>44866</v>
       </c>
@@ -8551,7 +8550,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>44896</v>
       </c>
@@ -8577,7 +8576,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>53</v>
@@ -8599,7 +8598,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>102</v>
@@ -8619,7 +8618,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="49"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="48" t="s">
         <v>94</v>
       </c>
@@ -8637,7 +8636,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>44927</v>
       </c>
@@ -8663,7 +8662,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>44958</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>67</v>
@@ -8707,7 +8706,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>44986</v>
       </c>
@@ -8733,7 +8732,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>45017</v>
       </c>
@@ -8759,7 +8758,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>53</v>
@@ -8781,7 +8780,7 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>45047</v>
       </c>
@@ -8807,7 +8806,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>53</v>
@@ -8829,7 +8828,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>53</v>
@@ -8851,7 +8850,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>45078</v>
       </c>
@@ -8877,7 +8876,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>45108</v>
       </c>
@@ -8903,7 +8902,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>45139</v>
       </c>
@@ -8929,7 +8928,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>45170</v>
       </c>
@@ -8955,7 +8954,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>45200</v>
       </c>
@@ -8975,7 +8974,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>45231</v>
       </c>
@@ -9001,7 +9000,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>53</v>
@@ -9023,7 +9022,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>45261</v>
       </c>
@@ -9049,7 +9048,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="48" t="s">
         <v>200</v>
       </c>
@@ -9067,7 +9066,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>45292</v>
       </c>
@@ -9091,7 +9090,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>45323</v>
       </c>
@@ -9109,7 +9108,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>45352</v>
       </c>
@@ -9127,7 +9126,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>45383</v>
       </c>
@@ -9145,7 +9144,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>45413</v>
       </c>
@@ -9163,7 +9162,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>45444</v>
       </c>
@@ -9181,7 +9180,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>45474</v>
       </c>
@@ -9199,7 +9198,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>45505</v>
       </c>
@@ -9217,7 +9216,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>45536</v>
       </c>
@@ -9235,7 +9234,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>45566</v>
       </c>
@@ -9253,7 +9252,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>45597</v>
       </c>
@@ -9271,7 +9270,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>45627</v>
       </c>
@@ -9289,7 +9288,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>45658</v>
       </c>
@@ -9307,7 +9306,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>45689</v>
       </c>
@@ -9325,7 +9324,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>45717</v>
       </c>
@@ -9343,7 +9342,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>45748</v>
       </c>
@@ -9361,7 +9360,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>45778</v>
       </c>
@@ -9379,7 +9378,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>45809</v>
       </c>
@@ -9397,7 +9396,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>45839</v>
       </c>
@@ -9415,7 +9414,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>45870</v>
       </c>
@@ -9433,7 +9432,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>45901</v>
       </c>
@@ -9451,7 +9450,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>45931</v>
       </c>
@@ -9469,7 +9468,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>45962</v>
       </c>
@@ -9487,7 +9486,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>45992</v>
       </c>
@@ -9505,7 +9504,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>46023</v>
       </c>
@@ -9523,7 +9522,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>46054</v>
       </c>
@@ -9541,7 +9540,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>46082</v>
       </c>
@@ -9559,7 +9558,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>46113</v>
       </c>
@@ -9577,7 +9576,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>46143</v>
       </c>
@@ -9595,7 +9594,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>46174</v>
       </c>
@@ -9613,7 +9612,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>46204</v>
       </c>
@@ -9631,7 +9630,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>46235</v>
       </c>
@@ -9649,7 +9648,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>46266</v>
       </c>
@@ -9667,7 +9666,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>46296</v>
       </c>
@@ -9685,7 +9684,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -9701,7 +9700,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="41"/>
       <c r="B309" s="15"/>
       <c r="C309" s="42"/>
@@ -9732,10 +9731,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9758,28 +9757,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -9792,7 +9791,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9821,7 +9820,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.66700000000000004</v>
       </c>
@@ -9851,17 +9850,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -9882,7 +9881,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -9909,7 +9908,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9935,7 +9934,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9961,7 +9960,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9987,7 +9986,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10013,7 +10012,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10039,7 +10038,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10065,7 +10064,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10091,7 +10090,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10111,7 +10110,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10131,7 +10130,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10151,7 +10150,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10172,7 +10171,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10193,7 +10192,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10214,7 +10213,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10235,7 +10234,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10256,7 +10255,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10277,7 +10276,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10298,7 +10297,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10319,7 +10318,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10340,7 +10339,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10361,7 +10360,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10382,7 +10381,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10403,7 +10402,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10424,7 +10423,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10445,7 +10444,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10466,7 +10465,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10487,7 +10486,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10508,7 +10507,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10529,7 +10528,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10550,7 +10549,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10571,7 +10570,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10580,7 +10579,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10589,7 +10588,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10598,7 +10597,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10607,7 +10606,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10616,7 +10615,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10625,7 +10624,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10634,7 +10633,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10643,7 +10642,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10652,7 +10651,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10661,7 +10660,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10670,7 +10669,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10679,7 +10678,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10688,7 +10687,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10697,7 +10696,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10706,7 +10705,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10715,7 +10714,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10724,7 +10723,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10733,7 +10732,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10742,7 +10741,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10751,7 +10750,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10760,7 +10759,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10769,7 +10768,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10778,7 +10777,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10787,7 +10786,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10796,7 +10795,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10805,7 +10804,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10814,7 +10813,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10823,7 +10822,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10832,7 +10831,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/SP-VMO/DE OCAMPO, MA. ELENA DE GRANO.xlsx
+++ b/REGULAR/SP-VMO/DE OCAMPO, MA. ELENA DE GRANO.xlsx
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="204">
   <si>
     <t>PERIOD</t>
   </si>
@@ -643,6 +643,9 @@
   </si>
   <si>
     <t>1/11,12/2024</t>
+  </si>
+  <si>
+    <t>02/31/2024</t>
   </si>
 </sst>
 </file>
@@ -3092,7 +3095,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A266" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K274" sqref="K274"/>
+      <selection pane="bottomLeft" activeCell="E276" sqref="E276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3255,7 +3258,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>106.66500000000001</v>
+        <v>107.91500000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3265,7 +3268,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>50.641999999999996</v>
+        <v>50.891999999999996</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9073,15 +9076,17 @@
       <c r="B274" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C274" s="13"/>
+      <c r="C274" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D274" s="39">
         <v>2</v>
       </c>
       <c r="E274" s="9"/>
       <c r="F274" s="20"/>
-      <c r="G274" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G274" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H274" s="39"/>
       <c r="I274" s="9"/>
@@ -9094,7 +9099,9 @@
       <c r="A275" s="40">
         <v>45323</v>
       </c>
-      <c r="B275" s="20"/>
+      <c r="B275" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C275" s="13"/>
       <c r="D275" s="39"/>
       <c r="E275" s="9"/>
@@ -9103,10 +9110,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H275" s="39"/>
+      <c r="H275" s="39">
+        <v>1</v>
+      </c>
       <c r="I275" s="9"/>
       <c r="J275" s="11"/>
-      <c r="K275" s="20"/>
+      <c r="K275" s="20" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
